--- a/tests/testdata.xlsx
+++ b/tests/testdata.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="testdata.xlsx" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="testdata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
